--- a/sshuangpu/模版.xlsx
+++ b/sshuangpu/模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LearningHub\Project\crawl\sshuangpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D39AE-29D0-48E9-97D7-7EF74F0AA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0BCCEC-A775-4AE3-9B4F-47EC2F92B75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="444">
   <si>
     <t>区</t>
   </si>
@@ -176,21 +176,21 @@
     <t>铁道路776弄9号楼</t>
   </si>
   <si>
+    <t>瞿溪883弄15号</t>
+  </si>
+  <si>
+    <t>制造局路567弄11号</t>
+  </si>
+  <si>
     <t>先棉祠街36号</t>
   </si>
   <si>
-    <t>制造局路567弄11号</t>
-  </si>
-  <si>
-    <t>瞿溪883弄15号</t>
+    <t>瞿溪路883弄8号</t>
   </si>
   <si>
     <t>蒙自路490弄2号</t>
   </si>
   <si>
-    <t>瞿溪路883弄8号</t>
-  </si>
-  <si>
     <t>淡水路460弄2号</t>
   </si>
   <si>
@@ -206,15 +206,15 @@
     <t>黄浦区中南小区198弄8号</t>
   </si>
   <si>
+    <t>瞿溪路883弄7号</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>瞿溪路1111弄9号</t>
   </si>
   <si>
-    <t>瞿溪路883弄7号</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>新昌路87弄104号</t>
   </si>
   <si>
@@ -236,18 +236,18 @@
     <t>21</t>
   </si>
   <si>
+    <t>淮海东路89弄4号</t>
+  </si>
+  <si>
     <t>瞿溪路111弄19号</t>
   </si>
   <si>
-    <t>淮海东路89弄4号</t>
+    <t>淮海东路89弄6号</t>
   </si>
   <si>
     <t>保屯路211弄28号</t>
   </si>
   <si>
-    <t>淮海东路89弄6号</t>
-  </si>
-  <si>
     <t>迎勋路100弄6号</t>
   </si>
   <si>
@@ -308,12 +308,12 @@
     <t>中山南一路1012弄5号、6号</t>
   </si>
   <si>
+    <t>蒙自路490弄1号</t>
+  </si>
+  <si>
     <t>海南西弄64号</t>
   </si>
   <si>
-    <t>蒙自路490弄1号</t>
-  </si>
-  <si>
     <t>淡水路460弄4、5、7号</t>
   </si>
   <si>
@@ -335,15 +335,15 @@
     <t>25</t>
   </si>
   <si>
+    <t>中山南一路247弄13号</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>中山南一路247弄17号</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>中山南一路247弄13号</t>
-  </si>
-  <si>
     <t>淡水路460弄4号</t>
   </si>
   <si>
@@ -365,30 +365,36 @@
     <t>汝南街64号楼</t>
   </si>
   <si>
+    <t>我区推进老旧小区加装电梯</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>制造局路646弄1号</t>
   </si>
   <si>
     <t>丽园路666号</t>
   </si>
   <si>
+    <t>西藏南路1341弄7号</t>
+  </si>
+  <si>
     <t>西藏南路1341弄5号</t>
   </si>
   <si>
-    <t>西藏南路1341弄7号</t>
-  </si>
-  <si>
     <t>瞿溪路1111弄15号</t>
   </si>
   <si>
+    <t>半淞园街道辖区普育东路101弄9号</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>汉口路415号</t>
   </si>
   <si>
-    <t>半淞园街道辖区普育东路101弄9号</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>铁道路776弄7号</t>
   </si>
   <si>
@@ -404,6 +410,9 @@
     <t>西藏南路1341弄8号</t>
   </si>
   <si>
+    <t>中山南一路247弄20号</t>
+  </si>
+  <si>
     <t>制造局路721弄1号</t>
   </si>
   <si>
@@ -437,18 +446,21 @@
     <t>迎勋路100弄7号楼</t>
   </si>
   <si>
+    <t>铁道路776弄10号</t>
+  </si>
+  <si>
     <t>徐家汇路454弄36号</t>
   </si>
   <si>
     <t>山西南路31弄4号</t>
   </si>
   <si>
-    <t>铁道路776弄10号</t>
-  </si>
-  <si>
     <t>斜土路80弄16号</t>
   </si>
   <si>
+    <t>淮海中路街道办事处关于合肥路267、269、271号楼</t>
+  </si>
+  <si>
     <t>核发打浦路303弄1号</t>
   </si>
   <si>
@@ -464,7 +476,7 @@
     <t>汝南路70弄5号楼</t>
   </si>
   <si>
-    <t>淮海中路街道办事处关于合肥路267、269、271号楼</t>
+    <t>豫园</t>
   </si>
   <si>
     <t>丽园路660号</t>
@@ -476,12 +488,12 @@
     <t>中南小区25号楼</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>五里桥路262号楼</t>
   </si>
   <si>
+    <t>上海一小区实现整小区老房加装电梯，六部电梯同时开工</t>
+  </si>
+  <si>
     <t>宁波路120弄22号</t>
   </si>
   <si>
@@ -521,9 +533,6 @@
     <t>斜土路262弄5号</t>
   </si>
   <si>
-    <t>让百年老大楼“焕发新生”｜区房管局召开南昌路149号</t>
-  </si>
-  <si>
     <t>淡水路460弄3号</t>
   </si>
   <si>
@@ -581,15 +590,12 @@
     <t>宁波路120弄14号</t>
   </si>
   <si>
-    <t>普育东路101弄8号</t>
+    <t>整小区规模化，10台加梯同时开工今年全区加装电梯签约112台，开工50台</t>
   </si>
   <si>
     <t>西藏南路1341弄6号</t>
   </si>
   <si>
-    <t>河南中路575弄小区7、9号楼</t>
-  </si>
-  <si>
     <t>黄家路99弄12、19、32号</t>
   </si>
   <si>
@@ -617,12 +623,12 @@
     <t>蒙自西路28弄3号</t>
   </si>
   <si>
+    <t>黄浦区人民政府外滩街道办事处 关于河南中路575弄小区11号楼</t>
+  </si>
+  <si>
     <t>斜土路80弄5、6、15号</t>
   </si>
   <si>
-    <t>黄浦区人民政府外滩街道办事处 关于河南中路575弄小区11号楼</t>
-  </si>
-  <si>
     <t>核发五里桥路262号楼</t>
   </si>
   <si>
@@ -635,12 +641,12 @@
     <t>五里桥路210弄2号楼、4号楼</t>
   </si>
   <si>
+    <t>怡绿公寓9、10号</t>
+  </si>
+  <si>
     <t>蒙自路490弄8号</t>
   </si>
   <si>
-    <t>怡绿公寓9、10号</t>
-  </si>
-  <si>
     <t>黄浦区合肥路267号</t>
   </si>
   <si>
@@ -668,12 +674,6 @@
     <t>打浦路316弄14号</t>
   </si>
   <si>
-    <t>局门路434弄8号</t>
-  </si>
-  <si>
-    <t>打浦路316弄16号</t>
-  </si>
-  <si>
     <t>复兴东路663弄5、6号楼</t>
   </si>
   <si>
@@ -719,6 +719,9 @@
     <t>丽园路885号</t>
   </si>
   <si>
+    <t>五里桥</t>
+  </si>
+  <si>
     <t>先棉祠街38号</t>
   </si>
   <si>
@@ -752,24 +755,24 @@
     <t>五里桥路39弄1、2号</t>
   </si>
   <si>
+    <t>局门路361弄1号</t>
+  </si>
+  <si>
     <t>沙家街20弄1号</t>
   </si>
   <si>
-    <t>局门路361弄1号</t>
+    <t>斜土路80弄18、22号</t>
   </si>
   <si>
     <t>五里桥路252、254号楼</t>
   </si>
   <si>
-    <t>斜土路80弄18、22号</t>
+    <t>汝南街66、68号</t>
   </si>
   <si>
     <t>铁道路776弄684号楼</t>
   </si>
   <si>
-    <t>汝南街66、68号</t>
-  </si>
-  <si>
     <t>思南路26弄2号</t>
   </si>
   <si>
@@ -782,12 +785,12 @@
     <t>威海路62号</t>
   </si>
   <si>
+    <t>西藏南路1374弄13号</t>
+  </si>
+  <si>
     <t>瑞金南路63弄29号</t>
   </si>
   <si>
-    <t>西藏南路1374弄13号</t>
-  </si>
-  <si>
     <t>制造局路521号楼</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
     <t>黄家路99弄24号</t>
   </si>
   <si>
+    <t>黄浦区绿化和市容管理局</t>
+  </si>
+  <si>
     <t>宁波路120弄8号</t>
   </si>
   <si>
@@ -821,18 +827,18 @@
     <t>打浦路316弄25号</t>
   </si>
   <si>
+    <t>核发五里桥路210弄5号楼</t>
+  </si>
+  <si>
+    <t>丽园路842弄40号</t>
+  </si>
+  <si>
+    <t>打浦路316弄35号</t>
+  </si>
+  <si>
     <t>五里桥路235弄1、2、3、4、号楼</t>
   </si>
   <si>
-    <t>丽园路842弄40号</t>
-  </si>
-  <si>
-    <t>核发五里桥路210弄5号楼</t>
-  </si>
-  <si>
-    <t>打浦路316弄35号</t>
-  </si>
-  <si>
     <t>河南中路575弄11号</t>
   </si>
   <si>
@@ -887,13 +893,16 @@
     <t>制造局路507号楼</t>
   </si>
   <si>
+    <t>复兴中路626弄4号</t>
+  </si>
+  <si>
+    <t>蒙自西路62弄1号</t>
+  </si>
+  <si>
     <t>蒙自西路72弄13号</t>
   </si>
   <si>
-    <t>蒙自西路62弄1号</t>
-  </si>
-  <si>
-    <t>复兴中路626弄4号</t>
+    <t>局门路361弄8号</t>
   </si>
   <si>
     <t>复兴中路480弄5号</t>
@@ -902,21 +911,18 @@
     <t>丽园路842弄43号</t>
   </si>
   <si>
-    <t>局门路361弄8号</t>
-  </si>
-  <si>
     <t>西藏南路1374弄41号</t>
   </si>
   <si>
     <t>复兴中路455弄29号</t>
   </si>
   <si>
+    <t>宁波路120弄10号</t>
+  </si>
+  <si>
     <t>宁波路120弄18号</t>
   </si>
   <si>
-    <t>宁波路120弄10号</t>
-  </si>
-  <si>
     <t>蒙自西路72弄12号</t>
   </si>
   <si>
@@ -926,21 +932,21 @@
     <t>蒙自西路72弄9号</t>
   </si>
   <si>
+    <t>河南中路575弄7号</t>
+  </si>
+  <si>
     <t>河南中路575弄９号</t>
   </si>
   <si>
-    <t>河南中路575弄7号</t>
-  </si>
-  <si>
     <t>河南中路575弄3号</t>
   </si>
   <si>
+    <t>局门路434弄15号</t>
+  </si>
+  <si>
     <t>局门路434弄16号</t>
   </si>
   <si>
-    <t>局门路434弄15号</t>
-  </si>
-  <si>
     <t>西藏南路1371弄1号</t>
   </si>
   <si>
@@ -959,6 +965,9 @@
     <t>中南小区20号楼</t>
   </si>
   <si>
+    <t>鲁班路778 弄56 号楼</t>
+  </si>
+  <si>
     <t>五里桥路210弄3号</t>
   </si>
   <si>
@@ -980,12 +989,12 @@
     <t>丽园路842弄33号</t>
   </si>
   <si>
+    <t>中华路211弄7号楼</t>
+  </si>
+  <si>
     <t>中华路211弄10号楼</t>
   </si>
   <si>
-    <t>中华路211弄7号楼</t>
-  </si>
-  <si>
     <t>核发上海市中山南一路198弄18号</t>
   </si>
   <si>
@@ -1028,6 +1037,102 @@
     <t>丽园路842弄39、51号</t>
   </si>
   <si>
+    <t>局门路361弄9、11号</t>
+  </si>
+  <si>
+    <t>普育东路101弄5号</t>
+  </si>
+  <si>
+    <t>陆家浜路1382弄44号</t>
+  </si>
+  <si>
+    <t>西藏南路1374弄19、21、23、27、29号</t>
+  </si>
+  <si>
+    <t>制造局后街28号、陆家浜路1382弄46号</t>
+  </si>
+  <si>
+    <t>打浦路316弄27号</t>
+  </si>
+  <si>
+    <t>复兴东路663弄4号楼</t>
+  </si>
+  <si>
+    <t>丽园路842弄22，23号</t>
+  </si>
+  <si>
+    <t>普育东路101弄16号</t>
+  </si>
+  <si>
+    <t>普育东路71弄15号</t>
+  </si>
+  <si>
+    <t>普育东路71弄2号</t>
+  </si>
+  <si>
+    <t>普育东路101弄10号</t>
+  </si>
+  <si>
+    <t>普育东路101弄12号</t>
+  </si>
+  <si>
+    <t>丽园路842弄30号、50号</t>
+  </si>
+  <si>
+    <t>海南西弄51弄1号</t>
+  </si>
+  <si>
+    <t>丽园路842弄30、50号</t>
+  </si>
+  <si>
+    <t>普育东路71弄3号</t>
+  </si>
+  <si>
+    <t>西藏南路1371弄3号楼</t>
+  </si>
+  <si>
+    <t>蒙自西路72弄5、6号</t>
+  </si>
+  <si>
+    <t>丽园路710弄6，8号</t>
+  </si>
+  <si>
+    <t>局门路361弄10、12号</t>
+  </si>
+  <si>
+    <t>中南小区16、17号楼</t>
+  </si>
+  <si>
+    <t>复兴东路663弄1号楼</t>
+  </si>
+  <si>
+    <t>上海市黄浦区怡绿公寓6号、7号</t>
+  </si>
+  <si>
+    <t>丽园路514弄2、3、4号</t>
+  </si>
+  <si>
+    <t>蒙自路395弄4号楼</t>
+  </si>
+  <si>
+    <t>五里桥路260弄1号楼</t>
+  </si>
+  <si>
+    <t>丽园路842 弄35 号楼</t>
+  </si>
+  <si>
+    <t>五里桥路260弄2号楼</t>
+  </si>
+  <si>
+    <t>汝南街78弄2号楼</t>
+  </si>
+  <si>
+    <t>汝南街70弄4号楼</t>
+  </si>
+  <si>
+    <t>五里桥路260弄3号楼</t>
+  </si>
+  <si>
     <t>局门路434弄13号楼</t>
   </si>
   <si>
@@ -1037,105 +1142,6 @@
     <t>蒙自路395弄8号楼</t>
   </si>
   <si>
-    <t>西藏南路1374弄19、21、23、27、29号</t>
-  </si>
-  <si>
-    <t>普育东路101弄5号</t>
-  </si>
-  <si>
-    <t>陆家浜路1382弄44号</t>
-  </si>
-  <si>
-    <t>局门路361弄9、11号</t>
-  </si>
-  <si>
-    <t>制造局后街28号、陆家浜路1382弄46号</t>
-  </si>
-  <si>
-    <t>打浦路316弄27号</t>
-  </si>
-  <si>
-    <t>复兴东路663弄4号楼</t>
-  </si>
-  <si>
-    <t>丽园路842弄22，23号</t>
-  </si>
-  <si>
-    <t>普育东路101弄16号</t>
-  </si>
-  <si>
-    <t>普育东路71弄15号</t>
-  </si>
-  <si>
-    <t>普育东路71弄2号</t>
-  </si>
-  <si>
-    <t>普育东路101弄10号</t>
-  </si>
-  <si>
-    <t>普育东路101弄12号</t>
-  </si>
-  <si>
-    <t>丽园路842弄30号、50号</t>
-  </si>
-  <si>
-    <t>海南西弄51弄1号</t>
-  </si>
-  <si>
-    <t>丽园路842弄30、50号</t>
-  </si>
-  <si>
-    <t>普育东路71弄3号</t>
-  </si>
-  <si>
-    <t>西藏南路1371弄3号楼</t>
-  </si>
-  <si>
-    <t>蒙自西路72弄5、6号</t>
-  </si>
-  <si>
-    <t>丽园路710弄6，8号</t>
-  </si>
-  <si>
-    <t>中南小区16、17号楼</t>
-  </si>
-  <si>
-    <t>局门路361弄10、12号</t>
-  </si>
-  <si>
-    <t>普育东路71弄1号</t>
-  </si>
-  <si>
-    <t>复兴东路663弄2号楼</t>
-  </si>
-  <si>
-    <t>复兴东路663弄1号楼</t>
-  </si>
-  <si>
-    <t>上海市黄浦区怡绿公寓6号、7号</t>
-  </si>
-  <si>
-    <t>丽园路514弄2、3、4号</t>
-  </si>
-  <si>
-    <t>蒙自路395弄4号楼</t>
-  </si>
-  <si>
-    <t>五里桥路260弄1号楼</t>
-  </si>
-  <si>
-    <t>五里桥路260弄2号楼</t>
-  </si>
-  <si>
-    <t>汝南街70弄4号楼</t>
-  </si>
-  <si>
-    <t>五里桥路260弄3号楼</t>
-  </si>
-  <si>
-    <t>汝南街78弄2号楼</t>
-  </si>
-  <si>
     <t>蒙自路490弄13号楼</t>
   </si>
   <si>
@@ -1187,15 +1193,15 @@
     <t>普育东路71弄5号楼</t>
   </si>
   <si>
+    <t>鼎达公寓5号楼、7号楼</t>
+  </si>
+  <si>
     <t>中山南一路198弄23号楼</t>
   </si>
   <si>
     <t>普育东路71弄4号楼</t>
   </si>
   <si>
-    <t>鼎达公寓5号楼、7号楼</t>
-  </si>
-  <si>
     <t>汝南街78弄1号楼</t>
   </si>
   <si>
@@ -1250,27 +1256,30 @@
     <t>西凌家宅路27弄1号、2号、3号</t>
   </si>
   <si>
+    <t>西凌家宅路27弄4、6、7号</t>
+  </si>
+  <si>
+    <t>西凌家宅路27弄11号楼</t>
+  </si>
+  <si>
+    <t>核发黄浦区五里桥路210弄怡绿公寓1号楼</t>
+  </si>
+  <si>
+    <t>中山南一路1048弄春江小区8号楼</t>
+  </si>
+  <si>
     <t>中山南一路198弄中南小区19号楼</t>
   </si>
   <si>
-    <t>西凌家宅路27弄4、6、7号</t>
-  </si>
-  <si>
-    <t>西凌家宅路27弄11号楼</t>
-  </si>
-  <si>
-    <t>核发黄浦区五里桥路210弄怡绿公寓1号楼</t>
-  </si>
-  <si>
-    <t>中山南一路1048弄春江小区8号楼</t>
-  </si>
-  <si>
     <t>核发蒙自路481弄（鼎达公寓）1号楼、3号楼</t>
   </si>
   <si>
     <t>五里桥路210弄怡绿公寓2号楼、4号楼</t>
   </si>
   <si>
+    <t>丽园路 842 弄 25、27、37、44、48 号</t>
+  </si>
+  <si>
     <t>丽园路842弄29、36、38号、蒙自路208号</t>
   </si>
   <si>
@@ -1283,33 +1292,45 @@
     <t>黄浦区五里桥路210弄怡绿公寓2号楼、4号楼</t>
   </si>
   <si>
-    <t>黄浦迎来第300台加梯丽园新村19号楼</t>
-  </si>
-  <si>
-    <t>【听】在外滩·老市府大楼，“抢救”上海002号</t>
-  </si>
-  <si>
-    <t>“抢救”上海002号</t>
+    <t>核发黄浦区五里桥路210弄怡绿公寓2号楼、4号楼</t>
+  </si>
+  <si>
+    <t>西凌新村小区西凌家宅路137 弄2 号楼</t>
+  </si>
+  <si>
+    <t>新学期起，黄浦这所小学将迎来全新变化→</t>
+  </si>
+  <si>
+    <t>黄浦：克服严苛环境条件 加快推进老旧小区电梯加装</t>
+  </si>
+  <si>
+    <t>最美加梯故事|打浦桥篇：蒙西小区破解沿街加梯难</t>
   </si>
   <si>
     <t>豫园街道举办复三小区1号楼、2号楼</t>
   </si>
   <si>
+    <t>老旧小区智能化管理，电动车安全居民安心</t>
+  </si>
+  <si>
     <t>8、9号</t>
   </si>
   <si>
     <t>轨交8、9号</t>
   </si>
   <si>
-    <t>普育东路101弄8号楼</t>
-  </si>
-  <si>
     <t>地铁8、9号</t>
   </si>
   <si>
     <t>上海市黄浦区普育东路101弄1-4号</t>
   </si>
   <si>
+    <t>西凌新村小区10台加装电梯集体开工</t>
+  </si>
+  <si>
+    <t>苏州河12个景观位小区业委会抱团取暖：共建共治共享，让好事看得见</t>
+  </si>
+  <si>
     <t>黄浦区788街坊 居住房屋征收补偿</t>
   </si>
   <si>
@@ -1319,6 +1340,9 @@
     <t>黄浦区186街坊（一期） 居住房屋征收补偿</t>
   </si>
   <si>
+    <t>黄浦区开启住宅小区消防安全检查行动</t>
+  </si>
+  <si>
     <t>黄浦区149、151街坊 居住房屋征收补偿</t>
   </si>
   <si>
@@ -1326,6 +1350,9 @@
   </si>
   <si>
     <t>黄浦区中山东一路13号</t>
+  </si>
+  <si>
+    <t>闪亮社区人｜小区居民是阿拉自家人</t>
   </si>
 </sst>
 </file>
@@ -1735,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:F427"/>
+  <dimension ref="B1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="K439" sqref="K439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2403,13 +2430,13 @@
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -2417,16 +2444,16 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -2519,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2528,7 +2555,7 @@
         <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -2536,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -2545,7 +2572,7 @@
         <v>66</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -2553,16 +2580,16 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -2570,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
@@ -2587,13 +2614,13 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2604,16 +2631,16 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -2621,16 +2648,16 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -2638,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
@@ -2647,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -2655,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -2672,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
@@ -2689,16 +2716,16 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -2706,16 +2733,16 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -2723,16 +2750,16 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -2740,16 +2767,16 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -2757,16 +2784,16 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -2774,16 +2801,16 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -2791,16 +2818,16 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -2808,16 +2835,16 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -2825,13 +2852,13 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
         <v>70</v>
@@ -2842,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
@@ -2859,16 +2886,16 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -2876,16 +2903,16 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -2893,16 +2920,16 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -2910,16 +2937,16 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -2927,16 +2954,16 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -2944,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
         <v>47</v>
@@ -2953,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -2961,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
         <v>47</v>
@@ -2978,16 +3005,16 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D73" t="s">
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -2995,16 +3022,16 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
         <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -3012,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
         <v>47</v>
@@ -3029,16 +3056,16 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D76" t="s">
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -3046,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
         <v>47</v>
@@ -3063,16 +3090,16 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
         <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -3080,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
         <v>47</v>
@@ -3097,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>47</v>
@@ -3114,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
         <v>47</v>
@@ -3131,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
         <v>47</v>
@@ -3140,7 +3167,7 @@
         <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -3148,16 +3175,16 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
         <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -3165,16 +3192,16 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
         <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -3182,16 +3209,16 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
         <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -3199,16 +3226,16 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s">
         <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -3216,7 +3243,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
         <v>47</v>
@@ -3225,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -3233,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
         <v>47</v>
@@ -3250,16 +3277,16 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
         <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
@@ -3267,16 +3294,16 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
         <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
@@ -3284,16 +3311,16 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D91" t="s">
         <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
@@ -3301,16 +3328,16 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
         <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
@@ -3318,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
         <v>47</v>
@@ -3327,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
@@ -3335,16 +3362,16 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
         <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
@@ -3352,16 +3379,16 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
         <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
@@ -3369,16 +3396,16 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
         <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
@@ -3403,16 +3430,16 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D98" t="s">
         <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
@@ -3420,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
         <v>47</v>
@@ -3429,7 +3456,7 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -3437,16 +3464,16 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
         <v>115</v>
       </c>
-      <c r="D100" t="s">
-        <v>47</v>
-      </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -3477,10 +3504,10 @@
         <v>47</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
@@ -3494,10 +3521,10 @@
         <v>47</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -3511,10 +3538,10 @@
         <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3552,13 @@
         <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
@@ -3539,16 +3566,16 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" t="s">
         <v>122</v>
       </c>
-      <c r="D106" t="s">
-        <v>47</v>
-      </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
@@ -3562,10 +3589,10 @@
         <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
@@ -3582,7 +3609,7 @@
         <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
@@ -3596,10 +3623,10 @@
         <v>47</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
@@ -3616,7 +3643,7 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
@@ -3630,10 +3657,10 @@
         <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
@@ -3647,10 +3674,10 @@
         <v>47</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
@@ -3661,13 +3688,13 @@
         <v>129</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
@@ -3675,7 +3702,7 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" t="s">
         <v>47</v>
@@ -3692,7 +3719,7 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D115" t="s">
         <v>47</v>
@@ -3709,16 +3736,16 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
+        <v>132</v>
+      </c>
+      <c r="D116" t="s">
         <v>133</v>
       </c>
-      <c r="D116" t="s">
-        <v>47</v>
-      </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F116" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
@@ -3732,10 +3759,10 @@
         <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
@@ -3749,10 +3776,10 @@
         <v>47</v>
       </c>
       <c r="E118" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
@@ -3766,10 +3793,10 @@
         <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
@@ -3780,13 +3807,13 @@
         <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
@@ -3800,10 +3827,10 @@
         <v>47</v>
       </c>
       <c r="E121" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
@@ -3817,10 +3844,10 @@
         <v>47</v>
       </c>
       <c r="E122" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
@@ -3831,13 +3858,13 @@
         <v>140</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
@@ -3851,10 +3878,10 @@
         <v>47</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F124" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
@@ -3865,13 +3892,13 @@
         <v>142</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
@@ -3879,13 +3906,13 @@
         <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -3896,16 +3923,16 @@
         <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
         <v>47</v>
       </c>
       <c r="E127" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
@@ -3913,10 +3940,10 @@
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
         <v>89</v>
@@ -3930,16 +3957,16 @@
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D129" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
         <v>33</v>
-      </c>
-      <c r="F129" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
@@ -3947,16 +3974,16 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
@@ -3967,13 +3994,13 @@
         <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F131" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
@@ -3981,16 +4008,16 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
@@ -3998,16 +4025,16 @@
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
@@ -4015,16 +4042,16 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E134" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
@@ -4032,16 +4059,16 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D135" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
@@ -4049,16 +4076,16 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D136" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
@@ -4066,16 +4093,16 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
@@ -4083,16 +4110,16 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D138" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E138" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
@@ -4100,16 +4127,16 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D139" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F139" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
@@ -4117,16 +4144,16 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
@@ -4134,16 +4161,16 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D141" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
@@ -4151,16 +4178,16 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D142" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
@@ -4168,16 +4195,16 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E143" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
@@ -4185,16 +4212,16 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
@@ -4202,16 +4229,16 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
         <v>66</v>
-      </c>
-      <c r="F145" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
@@ -4219,16 +4246,16 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E146" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
@@ -4236,16 +4263,16 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E147" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
@@ -4253,16 +4280,16 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
@@ -4270,16 +4297,16 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F149" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
@@ -4287,16 +4314,16 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D150" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F150" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
@@ -4304,16 +4331,16 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D151" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
@@ -4321,16 +4348,16 @@
         <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D152" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
@@ -4338,16 +4365,16 @@
         <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D153" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E153" t="s">
         <v>27</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
@@ -4355,16 +4382,16 @@
         <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D154" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
@@ -4372,16 +4399,16 @@
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D155" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
@@ -4389,16 +4416,16 @@
         <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D156" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E156" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
@@ -4406,16 +4433,16 @@
         <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
@@ -4423,16 +4450,16 @@
         <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
@@ -4440,13 +4467,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D159" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F159" t="s">
         <v>45</v>
@@ -4457,16 +4484,16 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D160" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E160" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
@@ -4474,16 +4501,16 @@
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D161" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
@@ -4491,16 +4518,16 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D162" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
@@ -4508,16 +4535,16 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
@@ -4525,16 +4552,16 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D164" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E164" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
@@ -4542,16 +4569,16 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F165" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
@@ -4559,16 +4586,16 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
@@ -4576,16 +4603,16 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
@@ -4593,16 +4620,16 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D168" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E168" t="s">
         <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
@@ -4610,16 +4637,16 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D169" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F169" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
@@ -4627,16 +4654,16 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D170" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F170" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
@@ -4644,16 +4671,16 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D171" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
@@ -4661,16 +4688,16 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D172" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
@@ -4678,16 +4705,16 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D173" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E173" t="s">
         <v>18</v>
       </c>
       <c r="F173" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
@@ -4695,16 +4722,16 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D174" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
@@ -4712,16 +4739,16 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E175" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
@@ -4729,16 +4756,16 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D176" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E176" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
@@ -4746,16 +4773,16 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D177" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F177" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
@@ -4763,16 +4790,16 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D178" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
@@ -4780,16 +4807,16 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D179" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E179" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
@@ -4797,16 +4824,16 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E180" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
@@ -4814,16 +4841,16 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D181" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E181" t="s">
         <v>27</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
@@ -4831,16 +4858,16 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D182" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F182" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
@@ -4848,16 +4875,16 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D183" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
@@ -4865,16 +4892,16 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D184" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E184" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
@@ -4882,16 +4909,16 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D185" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E185" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
@@ -4899,16 +4926,16 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D186" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F186" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
@@ -4916,16 +4943,16 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D187" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F187" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
@@ -4933,16 +4960,16 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E188" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
@@ -4950,16 +4977,16 @@
         <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
@@ -4967,16 +4994,16 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F190" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
@@ -4984,16 +5011,16 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D191" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F191" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
@@ -5001,16 +5028,16 @@
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D192" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
@@ -5018,16 +5045,16 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D193" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
@@ -5035,16 +5062,16 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D194" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F194" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
@@ -5052,16 +5079,16 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D195" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E195" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
@@ -5069,16 +5096,16 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D196" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E196" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F196" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
@@ -5086,16 +5113,16 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D197" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
@@ -5103,16 +5130,16 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D198" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
@@ -5120,16 +5147,16 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D199" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
@@ -5137,16 +5164,16 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D200" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
@@ -5154,16 +5181,16 @@
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D201" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E201" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
@@ -5171,10 +5198,10 @@
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D202" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E202" t="s">
         <v>12</v>
@@ -5188,16 +5215,16 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D203" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
@@ -5205,16 +5232,16 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E204" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
@@ -5222,16 +5249,16 @@
         <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D205" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E205" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F205" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
@@ -5239,16 +5266,16 @@
         <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D206" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E206" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
@@ -5256,16 +5283,16 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D207" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E207" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F207" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
@@ -5273,16 +5300,16 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D208" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E208" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" t="s">
         <v>18</v>
-      </c>
-      <c r="F208" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
@@ -5290,16 +5317,16 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D209" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E209" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
@@ -5307,16 +5334,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D210" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F210" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
@@ -5324,16 +5351,16 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D211" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E211" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
@@ -5341,16 +5368,16 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D212" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E212" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F212" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
@@ -5358,16 +5385,16 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D213" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E213" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
@@ -5375,16 +5402,16 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D214" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E214" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F214" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
@@ -5392,16 +5419,16 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D215" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E215" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
@@ -5409,16 +5436,16 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D216" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E216" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
@@ -5426,16 +5453,16 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D217" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F217" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
@@ -5443,16 +5470,16 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D218" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E218" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
@@ -5460,16 +5487,16 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D219" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F219" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
@@ -5477,16 +5504,16 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D220" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E220" t="s">
         <v>16</v>
       </c>
       <c r="F220" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
@@ -5494,16 +5521,16 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D221" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
@@ -5511,16 +5538,16 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D222" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E222" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
@@ -5528,16 +5555,16 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D223" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E223" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F223" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
@@ -5545,16 +5572,16 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D224" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E224" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F224" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
@@ -5562,16 +5589,16 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D225" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
@@ -5579,16 +5606,16 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D226" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
@@ -5596,16 +5623,16 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D227" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
@@ -5613,16 +5640,16 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D228" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E228" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
@@ -5630,16 +5657,16 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D229" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E229" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
@@ -5647,13 +5674,13 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D230" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E230" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F230" t="s">
         <v>33</v>
@@ -5664,16 +5691,16 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D231" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E231" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F231" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
@@ -5681,16 +5708,16 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D232" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E232" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
@@ -5698,16 +5725,16 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D233" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E233" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
@@ -5715,16 +5742,16 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D234" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E234" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F234" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
@@ -5732,16 +5759,16 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D235" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E235" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
@@ -5749,16 +5776,16 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D236" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E236" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F236" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
@@ -5766,16 +5793,16 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D237" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F237" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
@@ -5783,16 +5810,16 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D238" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E238" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F238" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
@@ -5800,16 +5827,16 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D239" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F239" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
@@ -5817,16 +5844,16 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D240" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F240" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
@@ -5834,16 +5861,16 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D241" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E241" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F241" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
@@ -5851,16 +5878,16 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="D242" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E242" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
@@ -5868,16 +5895,16 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="D243" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E243" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
@@ -5885,16 +5912,16 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D244" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E244" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F244" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
@@ -5902,16 +5929,16 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D245" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E245" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
@@ -5919,16 +5946,16 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D246" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E246" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
@@ -5936,16 +5963,16 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D247" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E247" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F247" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
@@ -5953,13 +5980,13 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D248" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E248" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F248" t="s">
         <v>13</v>
@@ -5970,16 +5997,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D249" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E249" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
@@ -5987,16 +6014,16 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="D250" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E250" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F250" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
@@ -6004,16 +6031,16 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="D251" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E251" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F251" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
@@ -6021,16 +6048,16 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D252" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E252" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
@@ -6038,16 +6065,16 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D253" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E253" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F253" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
@@ -6055,16 +6082,16 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D254" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E254" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
@@ -6072,16 +6099,16 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D255" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E255" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F255" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
@@ -6089,16 +6116,16 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D256" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="E256" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F256" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
@@ -6106,16 +6133,16 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D257" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E257" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F257" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
@@ -6123,16 +6150,16 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D258" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E258" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F258" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
@@ -6140,13 +6167,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D259" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E259" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F259" t="s">
         <v>21</v>
@@ -6157,16 +6184,16 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D260" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E260" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F260" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
@@ -6174,16 +6201,16 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D261" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E261" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F261" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
@@ -6191,16 +6218,16 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D262" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E262" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F262" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
@@ -6208,16 +6235,16 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D263" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E263" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F263" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
@@ -6225,16 +6252,16 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D264" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E264" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F264" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
@@ -6242,16 +6269,16 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D265" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E265" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
@@ -6259,16 +6286,16 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D266" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E266" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F266" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
@@ -6276,16 +6303,16 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D267" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E267" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F267" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
@@ -6293,16 +6320,16 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D268" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.25">
@@ -6310,16 +6337,16 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D269" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E269" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F269" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
@@ -6327,16 +6354,16 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D270" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E270" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
@@ -6344,16 +6371,16 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D271" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E271" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F271" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
@@ -6361,16 +6388,16 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D272" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E272" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F272" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
@@ -6378,16 +6405,16 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D273" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E273" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
@@ -6395,16 +6422,16 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D274" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E274" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F274" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
@@ -6412,16 +6439,16 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D275" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E275" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F275" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
@@ -6429,16 +6456,16 @@
         <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D276" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E276" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F276" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
@@ -6446,16 +6473,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D277" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E277" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
@@ -6463,16 +6490,16 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D278" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E278" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F278" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
@@ -6480,16 +6507,16 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D279" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E279" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F279" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.25">
@@ -6497,16 +6524,16 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D280" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E280" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F280" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
@@ -6514,16 +6541,16 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D281" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E281" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F281" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
@@ -6531,16 +6558,16 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D282" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E282" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F282" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
@@ -6548,16 +6575,16 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D283" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E283" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F283" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
@@ -6565,16 +6592,16 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D284" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E284" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F284" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
@@ -6582,16 +6609,16 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D285" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E285" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F285" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
@@ -6599,16 +6626,16 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D286" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E286" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
@@ -6616,16 +6643,16 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D287" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E287" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
@@ -6633,16 +6660,16 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D288" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E288" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F288" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
@@ -6650,16 +6677,16 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D289" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E289" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F289" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
@@ -6667,16 +6694,16 @@
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D290" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E290" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
@@ -6684,16 +6711,16 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="D291" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E291" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F291" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
@@ -6701,16 +6728,16 @@
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D292" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E292" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
@@ -6718,16 +6745,16 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D293" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E293" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F293" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
@@ -6735,16 +6762,16 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D294" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E294" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F294" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
@@ -6752,16 +6779,16 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D295" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E295" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F295" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
@@ -6769,16 +6796,16 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D296" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E296" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F296" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
@@ -6786,16 +6813,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D297" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E297" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F297" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
@@ -6803,16 +6830,16 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D298" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E298" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F298" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
@@ -6820,16 +6847,16 @@
         <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="D299" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E299" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F299" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
@@ -6837,16 +6864,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D300" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E300" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
@@ -6854,16 +6881,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D301" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E301" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F301" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
@@ -6871,16 +6898,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D302" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E302" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F302" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
@@ -6888,16 +6915,16 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D303" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E303" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F303" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
@@ -6905,16 +6932,16 @@
         <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D304" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E304" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F304" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
@@ -6922,16 +6949,16 @@
         <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D305" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E305" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F305" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
@@ -6939,16 +6966,16 @@
         <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D306" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E306" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F306" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
@@ -6956,16 +6983,16 @@
         <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D307" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E307" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F307" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
@@ -6973,16 +7000,16 @@
         <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D308" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E308" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F308" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
@@ -6990,16 +7017,16 @@
         <v>9</v>
       </c>
       <c r="C309" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D309" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E309" t="s">
+        <v>66</v>
+      </c>
+      <c r="F309" t="s">
         <v>31</v>
-      </c>
-      <c r="F309" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
@@ -7007,16 +7034,16 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D310" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E310" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F310" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
@@ -7024,16 +7051,16 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D311" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E311" t="s">
+        <v>80</v>
+      </c>
+      <c r="F311" t="s">
         <v>27</v>
-      </c>
-      <c r="F311" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
@@ -7041,16 +7068,16 @@
         <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D312" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E312" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F312" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
@@ -7058,16 +7085,16 @@
         <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D313" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E313" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F313" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
@@ -7075,16 +7102,16 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D314" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E314" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
@@ -7092,16 +7119,16 @@
         <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D315" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E315" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F315" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
@@ -7109,16 +7136,16 @@
         <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D316" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E316" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F316" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
@@ -7126,13 +7153,13 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D317" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E317" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F317" t="s">
         <v>89</v>
@@ -7143,16 +7170,16 @@
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D318" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E318" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F318" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
@@ -7160,16 +7187,16 @@
         <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D319" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E319" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F319" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
@@ -7177,16 +7204,16 @@
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D320" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E320" t="s">
         <v>18</v>
       </c>
       <c r="F320" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
@@ -7194,16 +7221,16 @@
         <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D321" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E321" t="s">
         <v>27</v>
       </c>
       <c r="F321" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
@@ -7211,16 +7238,16 @@
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D322" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E322" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F322" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
@@ -7228,16 +7255,16 @@
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D323" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E323" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F323" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
@@ -7245,16 +7272,16 @@
         <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D324" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E324" t="s">
         <v>89</v>
       </c>
       <c r="F324" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
@@ -7262,16 +7289,16 @@
         <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D325" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E325" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F325" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
@@ -7279,16 +7306,16 @@
         <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D326" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E326" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F326" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
@@ -7296,16 +7323,16 @@
         <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D327" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E327" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F327" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
@@ -7313,16 +7340,16 @@
         <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D328" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E328" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F328" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
@@ -7330,16 +7357,16 @@
         <v>9</v>
       </c>
       <c r="C329" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D329" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E329" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F329" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
@@ -7347,16 +7374,16 @@
         <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D330" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E330" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F330" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
@@ -7364,16 +7391,16 @@
         <v>9</v>
       </c>
       <c r="C331" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D331" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E331" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F331" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
@@ -7381,16 +7408,16 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D332" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E332" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F332" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
@@ -7398,16 +7425,16 @@
         <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D333" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E333" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
@@ -7415,16 +7442,16 @@
         <v>9</v>
       </c>
       <c r="C334" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D334" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E334" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
@@ -7432,16 +7459,16 @@
         <v>9</v>
       </c>
       <c r="C335" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D335" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E335" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F335" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
@@ -7449,16 +7476,16 @@
         <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D336" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E336" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F336" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
@@ -7466,16 +7493,16 @@
         <v>9</v>
       </c>
       <c r="C337" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D337" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E337" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F337" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
@@ -7483,16 +7510,16 @@
         <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D338" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E338" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F338" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
@@ -7500,16 +7527,16 @@
         <v>9</v>
       </c>
       <c r="C339" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D339" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E339" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F339" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
@@ -7517,16 +7544,16 @@
         <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D340" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E340" t="s">
+        <v>80</v>
+      </c>
+      <c r="F340" t="s">
         <v>33</v>
-      </c>
-      <c r="F340" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
@@ -7534,16 +7561,16 @@
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D341" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E341" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F341" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
@@ -7551,16 +7578,16 @@
         <v>9</v>
       </c>
       <c r="C342" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D342" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E342" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F342" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
@@ -7568,16 +7595,16 @@
         <v>9</v>
       </c>
       <c r="C343" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D343" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E343" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F343" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
@@ -7585,16 +7612,16 @@
         <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D344" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E344" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F344" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
@@ -7602,16 +7629,16 @@
         <v>9</v>
       </c>
       <c r="C345" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D345" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E345" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F345" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
@@ -7619,16 +7646,16 @@
         <v>9</v>
       </c>
       <c r="C346" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D346" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E346" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F346" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
@@ -7636,16 +7663,16 @@
         <v>9</v>
       </c>
       <c r="C347" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D347" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E347" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F347" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
@@ -7653,16 +7680,16 @@
         <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D348" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E348" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F348" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
@@ -7670,16 +7697,16 @@
         <v>9</v>
       </c>
       <c r="C349" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D349" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E349" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F349" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
@@ -7687,16 +7714,16 @@
         <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E350" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F350" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
@@ -7704,16 +7731,16 @@
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D351" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E351" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F351" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
@@ -7721,16 +7748,16 @@
         <v>9</v>
       </c>
       <c r="C352" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D352" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E352" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F352" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
@@ -7738,16 +7765,16 @@
         <v>9</v>
       </c>
       <c r="C353" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D353" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E353" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F353" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
@@ -7755,16 +7782,16 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D354" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E354" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F354" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
@@ -7772,16 +7799,16 @@
         <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D355" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E355" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F355" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.25">
@@ -7789,16 +7816,16 @@
         <v>9</v>
       </c>
       <c r="C356" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D356" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E356" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F356" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
@@ -7806,16 +7833,16 @@
         <v>9</v>
       </c>
       <c r="C357" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D357" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E357" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F357" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
@@ -7823,16 +7850,16 @@
         <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D358" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E358" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F358" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
@@ -7840,16 +7867,16 @@
         <v>9</v>
       </c>
       <c r="C359" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D359" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E359" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F359" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
@@ -7857,16 +7884,16 @@
         <v>9</v>
       </c>
       <c r="C360" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D360" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E360" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F360" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
@@ -7874,16 +7901,16 @@
         <v>9</v>
       </c>
       <c r="C361" t="s">
-        <v>174</v>
+        <v>365</v>
       </c>
       <c r="D361" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E361" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F361" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
@@ -7891,16 +7918,16 @@
         <v>9</v>
       </c>
       <c r="C362" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="D362" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E362" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F362" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
@@ -7908,16 +7935,16 @@
         <v>9</v>
       </c>
       <c r="C363" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D363" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E363" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F363" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
@@ -7925,16 +7952,16 @@
         <v>9</v>
       </c>
       <c r="C364" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D364" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E364" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F364" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
@@ -7942,16 +7969,16 @@
         <v>9</v>
       </c>
       <c r="C365" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D365" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E365" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F365" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
@@ -7959,16 +7986,16 @@
         <v>9</v>
       </c>
       <c r="C366" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D366" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E366" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F366" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
@@ -7976,16 +8003,16 @@
         <v>9</v>
       </c>
       <c r="C367" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D367" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E367" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F367" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
@@ -7993,16 +8020,16 @@
         <v>9</v>
       </c>
       <c r="C368" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D368" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E368" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F368" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
@@ -8010,16 +8037,16 @@
         <v>9</v>
       </c>
       <c r="C369" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D369" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E369" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F369" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
@@ -8027,16 +8054,16 @@
         <v>9</v>
       </c>
       <c r="C370" t="s">
-        <v>379</v>
+        <v>177</v>
       </c>
       <c r="D370" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E370" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F370" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
@@ -8044,16 +8071,16 @@
         <v>9</v>
       </c>
       <c r="C371" t="s">
-        <v>380</v>
+        <v>178</v>
       </c>
       <c r="D371" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E371" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F371" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
@@ -8061,16 +8088,16 @@
         <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D372" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E372" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F372" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
@@ -8078,16 +8105,16 @@
         <v>9</v>
       </c>
       <c r="C373" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D373" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E373" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F373" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
@@ -8095,16 +8122,16 @@
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D374" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E374" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F374" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
@@ -8112,16 +8139,16 @@
         <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D375" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E375" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F375" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.25">
@@ -8129,16 +8156,16 @@
         <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D376" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E376" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F376" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.25">
@@ -8146,16 +8173,16 @@
         <v>9</v>
       </c>
       <c r="C377" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D377" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E377" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F377" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
@@ -8163,16 +8190,16 @@
         <v>9</v>
       </c>
       <c r="C378" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D378" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E378" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F378" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
@@ -8180,16 +8207,16 @@
         <v>9</v>
       </c>
       <c r="C379" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D379" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E379" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F379" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.25">
@@ -8197,16 +8224,16 @@
         <v>9</v>
       </c>
       <c r="C380" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D380" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E380" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F380" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.25">
@@ -8214,16 +8241,16 @@
         <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D381" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E381" t="s">
+        <v>15</v>
+      </c>
+      <c r="F381" t="s">
         <v>16</v>
-      </c>
-      <c r="F381" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.25">
@@ -8231,16 +8258,16 @@
         <v>9</v>
       </c>
       <c r="C382" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D382" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E382" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F382" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.25">
@@ -8248,16 +8275,16 @@
         <v>9</v>
       </c>
       <c r="C383" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D383" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E383" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F383" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.25">
@@ -8265,16 +8292,16 @@
         <v>9</v>
       </c>
       <c r="C384" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D384" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E384" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F384" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.25">
@@ -8282,16 +8309,16 @@
         <v>9</v>
       </c>
       <c r="C385" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D385" t="s">
-        <v>395</v>
+        <v>149</v>
       </c>
       <c r="E385" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F385" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.25">
@@ -8299,16 +8326,16 @@
         <v>9</v>
       </c>
       <c r="C386" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D386" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E386" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F386" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.25">
@@ -8316,16 +8343,16 @@
         <v>9</v>
       </c>
       <c r="C387" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D387" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E387" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F387" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.25">
@@ -8333,16 +8360,16 @@
         <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D388" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E388" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F388" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.25">
@@ -8350,16 +8377,16 @@
         <v>9</v>
       </c>
       <c r="C389" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D389" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E389" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F389" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.25">
@@ -8367,16 +8394,16 @@
         <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D390" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E390" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F390" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.25">
@@ -8384,16 +8411,16 @@
         <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D391" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E391" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F391" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.25">
@@ -8401,16 +8428,16 @@
         <v>9</v>
       </c>
       <c r="C392" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D392" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E392" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F392" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.25">
@@ -8418,16 +8445,16 @@
         <v>9</v>
       </c>
       <c r="C393" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D393" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E393" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F393" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.25">
@@ -8435,16 +8462,16 @@
         <v>9</v>
       </c>
       <c r="C394" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D394" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F394" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.25">
@@ -8452,16 +8479,16 @@
         <v>9</v>
       </c>
       <c r="C395" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D395" t="s">
-        <v>395</v>
+        <v>122</v>
       </c>
       <c r="E395" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F395" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="2:6" x14ac:dyDescent="0.25">
@@ -8469,16 +8496,16 @@
         <v>9</v>
       </c>
       <c r="C396" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D396" t="s">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="E396" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F396" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.25">
@@ -8486,16 +8513,16 @@
         <v>9</v>
       </c>
       <c r="C397" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D397" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E397" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F397" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" spans="2:6" x14ac:dyDescent="0.25">
@@ -8503,16 +8530,16 @@
         <v>9</v>
       </c>
       <c r="C398" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D398" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E398" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F398" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="2:6" x14ac:dyDescent="0.25">
@@ -8520,13 +8547,13 @@
         <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D399" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E399" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F399" t="s">
         <v>87</v>
@@ -8537,16 +8564,16 @@
         <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D400" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E400" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F400" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="401" spans="2:6" x14ac:dyDescent="0.25">
@@ -8554,16 +8581,16 @@
         <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D401" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E401" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F401" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="2:6" x14ac:dyDescent="0.25">
@@ -8571,16 +8598,16 @@
         <v>9</v>
       </c>
       <c r="C402" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D402" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E402" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F402" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="403" spans="2:6" x14ac:dyDescent="0.25">
@@ -8588,16 +8615,16 @@
         <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D403" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E403" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F403" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="2:6" x14ac:dyDescent="0.25">
@@ -8605,16 +8632,16 @@
         <v>9</v>
       </c>
       <c r="C404" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D404" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="E404" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F404" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="405" spans="2:6" x14ac:dyDescent="0.25">
@@ -8622,16 +8649,16 @@
         <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D405" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E405" t="s">
         <v>15</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="2:6" x14ac:dyDescent="0.25">
@@ -8639,16 +8666,16 @@
         <v>9</v>
       </c>
       <c r="C406" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D406" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E406" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F406" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="407" spans="2:6" x14ac:dyDescent="0.25">
@@ -8656,16 +8683,16 @@
         <v>9</v>
       </c>
       <c r="C407" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D407" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E407" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F407" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="2:6" x14ac:dyDescent="0.25">
@@ -8673,16 +8700,16 @@
         <v>9</v>
       </c>
       <c r="C408" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D408" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E408" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F408" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="409" spans="2:6" x14ac:dyDescent="0.25">
@@ -8690,16 +8717,16 @@
         <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D409" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E409" t="s">
         <v>27</v>
       </c>
       <c r="F409" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="410" spans="2:6" x14ac:dyDescent="0.25">
@@ -8707,16 +8734,16 @@
         <v>9</v>
       </c>
       <c r="C410" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D410" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E410" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F410" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="411" spans="2:6" x14ac:dyDescent="0.25">
@@ -8724,16 +8751,16 @@
         <v>9</v>
       </c>
       <c r="C411" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D411" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="E411" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F411" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="412" spans="2:6" x14ac:dyDescent="0.25">
@@ -8741,16 +8768,16 @@
         <v>9</v>
       </c>
       <c r="C412" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D412" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="E412" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F412" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="413" spans="2:6" x14ac:dyDescent="0.25">
@@ -8758,16 +8785,16 @@
         <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D413" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="E413" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F413" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="414" spans="2:6" x14ac:dyDescent="0.25">
@@ -8775,16 +8802,16 @@
         <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D414" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="E414" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F414" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="415" spans="2:6" x14ac:dyDescent="0.25">
@@ -8792,13 +8819,13 @@
         <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D415" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E415" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F415" t="s">
         <v>19</v>
@@ -8809,13 +8836,13 @@
         <v>9</v>
       </c>
       <c r="C416" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D416" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="E416" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F416" t="s">
         <v>34</v>
@@ -8826,16 +8853,16 @@
         <v>9</v>
       </c>
       <c r="C417" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D417" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="E417" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F417" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.25">
@@ -8843,16 +8870,16 @@
         <v>9</v>
       </c>
       <c r="C418" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D418" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="E418" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F418" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.25">
@@ -8860,16 +8887,16 @@
         <v>9</v>
       </c>
       <c r="C419" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D419" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E419" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F419" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="420" spans="2:6" x14ac:dyDescent="0.25">
@@ -8877,16 +8904,16 @@
         <v>9</v>
       </c>
       <c r="C420" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D420" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="E420" t="s">
         <v>15</v>
       </c>
       <c r="F420" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.25">
@@ -8894,16 +8921,16 @@
         <v>9</v>
       </c>
       <c r="C421" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D421" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E421" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F421" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.25">
@@ -8911,16 +8938,16 @@
         <v>9</v>
       </c>
       <c r="C422" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D422" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="E422" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F422" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="423" spans="2:6" x14ac:dyDescent="0.25">
@@ -8928,13 +8955,13 @@
         <v>9</v>
       </c>
       <c r="C423" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D423" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E423" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F423" t="s">
         <v>87</v>
@@ -8945,13 +8972,13 @@
         <v>9</v>
       </c>
       <c r="C424" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D424" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="E424" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F424" t="s">
         <v>87</v>
@@ -8962,16 +8989,16 @@
         <v>9</v>
       </c>
       <c r="C425" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D425" t="s">
         <v>47</v>
       </c>
       <c r="E425" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F425" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.25">
@@ -8979,16 +9006,16 @@
         <v>9</v>
       </c>
       <c r="C426" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D426" t="s">
         <v>47</v>
       </c>
       <c r="E426" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F426" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="427" spans="2:6" x14ac:dyDescent="0.25">
@@ -8996,16 +9023,373 @@
         <v>9</v>
       </c>
       <c r="C427" t="s">
+        <v>427</v>
+      </c>
+      <c r="D427" t="s">
+        <v>47</v>
+      </c>
+      <c r="E427" t="s">
+        <v>66</v>
+      </c>
+      <c r="F427" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" t="s">
+        <v>428</v>
+      </c>
+      <c r="D428" t="s">
+        <v>149</v>
+      </c>
+      <c r="E428" t="s">
+        <v>44</v>
+      </c>
+      <c r="F428" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>9</v>
+      </c>
+      <c r="C429" t="s">
+        <v>429</v>
+      </c>
+      <c r="D429" t="s">
+        <v>47</v>
+      </c>
+      <c r="E429" t="s">
+        <v>80</v>
+      </c>
+      <c r="F429" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>9</v>
+      </c>
+      <c r="C430" t="s">
+        <v>430</v>
+      </c>
+      <c r="D430" t="s">
+        <v>47</v>
+      </c>
+      <c r="E430" t="s">
+        <v>89</v>
+      </c>
+      <c r="F430" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" t="s">
+        <v>430</v>
+      </c>
+      <c r="D431" t="s">
+        <v>47</v>
+      </c>
+      <c r="E431" t="s">
+        <v>89</v>
+      </c>
+      <c r="F431" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" t="s">
+        <v>431</v>
+      </c>
+      <c r="D432" t="s">
+        <v>47</v>
+      </c>
+      <c r="E432" t="s">
+        <v>15</v>
+      </c>
+      <c r="F432" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>9</v>
+      </c>
+      <c r="C433" t="s">
+        <v>432</v>
+      </c>
+      <c r="D433" t="s">
+        <v>47</v>
+      </c>
+      <c r="E433" t="s">
+        <v>15</v>
+      </c>
+      <c r="F433" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434" t="s">
+        <v>429</v>
+      </c>
+      <c r="D434" t="s">
+        <v>47</v>
+      </c>
+      <c r="E434" t="s">
+        <v>80</v>
+      </c>
+      <c r="F434" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" t="s">
+        <v>429</v>
+      </c>
+      <c r="D435" t="s">
+        <v>47</v>
+      </c>
+      <c r="E435" t="s">
+        <v>80</v>
+      </c>
+      <c r="F435" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436" t="s">
+        <v>433</v>
+      </c>
+      <c r="D436" t="s">
+        <v>122</v>
+      </c>
+      <c r="E436" t="s">
+        <v>89</v>
+      </c>
+      <c r="F436" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" t="s">
         <v>434</v>
       </c>
-      <c r="D427" t="s">
-        <v>47</v>
-      </c>
-      <c r="E427" t="s">
+      <c r="D437" t="s">
+        <v>133</v>
+      </c>
+      <c r="E437" t="s">
+        <v>27</v>
+      </c>
+      <c r="F437" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" t="s">
+        <v>435</v>
+      </c>
+      <c r="D438" t="s">
+        <v>47</v>
+      </c>
+      <c r="E438" t="s">
+        <v>89</v>
+      </c>
+      <c r="F438" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439" t="s">
+        <v>436</v>
+      </c>
+      <c r="D439" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439" t="s">
         <v>12</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F439" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>9</v>
+      </c>
+      <c r="C440" t="s">
+        <v>437</v>
+      </c>
+      <c r="D440" t="s">
+        <v>11</v>
+      </c>
+      <c r="E440" t="s">
+        <v>12</v>
+      </c>
+      <c r="F440" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441" t="s">
+        <v>436</v>
+      </c>
+      <c r="D441" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" t="s">
+        <v>12</v>
+      </c>
+      <c r="F441" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442" t="s">
+        <v>437</v>
+      </c>
+      <c r="D442" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442" t="s">
+        <v>12</v>
+      </c>
+      <c r="F442" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443" t="s">
+        <v>438</v>
+      </c>
+      <c r="D443" t="s">
+        <v>11</v>
+      </c>
+      <c r="E443" t="s">
+        <v>23</v>
+      </c>
+      <c r="F443" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C444" t="s">
+        <v>439</v>
+      </c>
+      <c r="D444" t="s">
+        <v>47</v>
+      </c>
+      <c r="E444" t="s">
+        <v>66</v>
+      </c>
+      <c r="F444" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445" t="s">
+        <v>440</v>
+      </c>
+      <c r="D445" t="s">
+        <v>47</v>
+      </c>
+      <c r="E445" t="s">
         <v>15</v>
+      </c>
+      <c r="F445" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>9</v>
+      </c>
+      <c r="C446" t="s">
+        <v>441</v>
+      </c>
+      <c r="D446" t="s">
+        <v>47</v>
+      </c>
+      <c r="E446" t="s">
+        <v>15</v>
+      </c>
+      <c r="F446" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" t="s">
+        <v>442</v>
+      </c>
+      <c r="D447" t="s">
+        <v>47</v>
+      </c>
+      <c r="E447" t="s">
+        <v>12</v>
+      </c>
+      <c r="F447" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" t="s">
+        <v>443</v>
+      </c>
+      <c r="D448" t="s">
+        <v>133</v>
+      </c>
+      <c r="E448" t="s">
+        <v>15</v>
+      </c>
+      <c r="F448" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
